--- a/solutions/google/modern-workspace/workspace/presales/level-of-effort-estimate.xlsx
+++ b/solutions/google/modern-workspace/workspace/presales/level-of-effort-estimate.xlsx
@@ -2,27 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Scope Assumptions" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estimate Settings" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LOE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credits" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scope Assumptions'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Scope Assumptions'!$A$2:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Estimate Settings'!$A$2:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LOE'!$A$2:$K$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Credits'!$A$2:$D$6</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="9">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="$#,##0"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,51 +38,121 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="24"/>
+      <color rgb="FF5D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="14"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="FFCC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF5D6D7E"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="0044546A"/>
+      <color rgb="FFCC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF5D6D7E"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="26"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFCC0000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="00000000"/>
+      <color rgb="FF2C3E50"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="00FF0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <sz val="12"/>
+      <color rgb="FF2C3E50"/>
+      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -84,14 +161,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00808080"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FF2C3E50"/>
+        <bgColor rgb="FF2C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8FAFB"/>
+        <bgColor rgb="FFF8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F4F8"/>
+        <bgColor rgb="FFE8F4F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1ECF1"/>
+        <bgColor rgb="FFD1ECF1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F5E9"/>
+        <bgColor rgb="FFE8F5E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8F4F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF2CC"/>
+        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -101,12 +220,66 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF2C3E50"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBDC3C7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -119,102 +292,184 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <colors/>
 </styleSheet>
 </file>
 
@@ -224,13 +479,13 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1143000" cy="285750"/>
+    <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPr id="2" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
@@ -240,7 +495,9 @@
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
         <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
@@ -540,91 +797,114 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>Level Of Effort Estimate</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Presales Document</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="15" customHeight="1"/>
+    <row r="3" ht="40" customHeight="1">
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>[DOCUMENT TITLE]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1">
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>Level of Effort</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GOOGLE - Modern-Workspace - Workspace</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>November 15, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>Workspace</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Customer Name:</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>[Solution Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>[Customer Name]</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Version:</t>
         </is>
       </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="10" customHeight="1"/>
-    <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="40" customHeight="1"/>
+          <t>Draft</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="40" customHeight="1"/>
+    <row r="12" ht="30" customHeight="1">
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -637,10 +917,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -648,45 +928,543 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="40" customWidth="1" min="6" max="6"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="5" max="5"/>
+    <col width="39" customWidth="1" min="6" max="6"/>
+    <col width="44" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t>Column 1</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="inlineStr">
-        <is>
-          <t>Column 2</t>
-        </is>
-      </c>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>Column 3</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>Column 4</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>Column 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="26" customHeight="1"/>
-    <row r="3" ht="26" customHeight="1"/>
-    <row r="4" ht="26" customHeight="1"/>
-    <row r="5" ht="26" customHeight="1"/>
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>SCOPE ASSUMPTIONS - BASELINE (MULTIPLIER 1.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B2" s="36" t="inlineStr">
+        <is>
+          <t>Baseline Assumption</t>
+        </is>
+      </c>
+      <c r="C2" s="36" t="inlineStr">
+        <is>
+          <t>Current Scope</t>
+        </is>
+      </c>
+      <c r="D2" s="36" t="inlineStr">
+        <is>
+          <t>Small (1x)</t>
+        </is>
+      </c>
+      <c r="E2" s="36" t="inlineStr">
+        <is>
+          <t>Medium (2x)</t>
+        </is>
+      </c>
+      <c r="F2" s="36" t="inlineStr">
+        <is>
+          <t>Large (3x)</t>
+        </is>
+      </c>
+      <c r="G2" s="36" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="37" t="inlineStr">
+        <is>
+          <t>User Base</t>
+        </is>
+      </c>
+      <c r="B3" s="38" t="inlineStr">
+        <is>
+          <t>User Count</t>
+        </is>
+      </c>
+      <c r="C3" s="39" t="inlineStr">
+        <is>
+          <t>500 licensed users</t>
+        </is>
+      </c>
+      <c r="D3" s="38" t="inlineStr">
+        <is>
+          <t>100 users</t>
+        </is>
+      </c>
+      <c r="E3" s="38" t="inlineStr">
+        <is>
+          <t>500 users</t>
+        </is>
+      </c>
+      <c r="F3" s="38" t="inlineStr">
+        <is>
+          <t>2000+ users</t>
+        </is>
+      </c>
+      <c r="G3" s="38" t="inlineStr">
+        <is>
+          <t>Total Google Workspace licenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="40" t="inlineStr">
+        <is>
+          <t>User Base</t>
+        </is>
+      </c>
+      <c r="B4" s="41" t="inlineStr">
+        <is>
+          <t>Workspace Edition</t>
+        </is>
+      </c>
+      <c r="C4" s="39" t="inlineStr">
+        <is>
+          <t>Business Plus</t>
+        </is>
+      </c>
+      <c r="D4" s="41" t="inlineStr">
+        <is>
+          <t>Business Standard</t>
+        </is>
+      </c>
+      <c r="E4" s="41" t="inlineStr">
+        <is>
+          <t>Business Plus</t>
+        </is>
+      </c>
+      <c r="F4" s="41" t="inlineStr">
+        <is>
+          <t>Enterprise Plus</t>
+        </is>
+      </c>
+      <c r="G4" s="41" t="inlineStr">
+        <is>
+          <t>Feature tier and storage capacity</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="37" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>Email Migration</t>
+        </is>
+      </c>
+      <c r="C5" s="39" t="inlineStr">
+        <is>
+          <t>500 mailboxes (2.5 TB)</t>
+        </is>
+      </c>
+      <c r="D5" s="38" t="inlineStr">
+        <is>
+          <t>100 mailboxes</t>
+        </is>
+      </c>
+      <c r="E5" s="38" t="inlineStr">
+        <is>
+          <t>500 mailboxes</t>
+        </is>
+      </c>
+      <c r="F5" s="38" t="inlineStr">
+        <is>
+          <t>2000+ mailboxes</t>
+        </is>
+      </c>
+      <c r="G5" s="38" t="inlineStr">
+        <is>
+          <t>Exchange to Gmail migration volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="40" t="inlineStr">
+        <is>
+          <t>Migration</t>
+        </is>
+      </c>
+      <c r="B6" s="41" t="inlineStr">
+        <is>
+          <t>File Migration</t>
+        </is>
+      </c>
+      <c r="C6" s="39" t="inlineStr">
+        <is>
+          <t>File servers to Drive (3 TB)</t>
+        </is>
+      </c>
+      <c r="D6" s="41" t="inlineStr">
+        <is>
+          <t>1 TB</t>
+        </is>
+      </c>
+      <c r="E6" s="41" t="inlineStr">
+        <is>
+          <t>3 TB</t>
+        </is>
+      </c>
+      <c r="F6" s="41" t="inlineStr">
+        <is>
+          <t>10+ TB</t>
+        </is>
+      </c>
+      <c r="G6" s="41" t="inlineStr">
+        <is>
+          <t>Document migration complexity</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="26" customHeight="1">
+      <c r="A7" s="37" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="B7" s="38" t="inlineStr">
+        <is>
+          <t>Identity Integration</t>
+        </is>
+      </c>
+      <c r="C7" s="39" t="inlineStr">
+        <is>
+          <t>SAML SSO with Azure AD</t>
+        </is>
+      </c>
+      <c r="D7" s="38" t="inlineStr">
+        <is>
+          <t>Basic auth</t>
+        </is>
+      </c>
+      <c r="E7" s="38" t="inlineStr">
+        <is>
+          <t>SAML SSO</t>
+        </is>
+      </c>
+      <c r="F7" s="38" t="inlineStr">
+        <is>
+          <t>Federated + directory sync</t>
+        </is>
+      </c>
+      <c r="G7" s="38" t="inlineStr">
+        <is>
+          <t>Authentication complexity</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1">
+      <c r="A8" s="40" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="B8" s="41" t="inlineStr">
+        <is>
+          <t>Distribution Lists</t>
+        </is>
+      </c>
+      <c r="C8" s="39" t="inlineStr">
+        <is>
+          <t>150 groups</t>
+        </is>
+      </c>
+      <c r="D8" s="41" t="inlineStr">
+        <is>
+          <t>50 groups</t>
+        </is>
+      </c>
+      <c r="E8" s="41" t="inlineStr">
+        <is>
+          <t>150 groups</t>
+        </is>
+      </c>
+      <c r="F8" s="41" t="inlineStr">
+        <is>
+          <t>500+ groups</t>
+        </is>
+      </c>
+      <c r="G8" s="41" t="inlineStr">
+        <is>
+          <t>Email group migration count</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="26" customHeight="1">
+      <c r="A9" s="37" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>DLP Policies</t>
+        </is>
+      </c>
+      <c r="C9" s="39" t="inlineStr">
+        <is>
+          <t>Sensitive content detection</t>
+        </is>
+      </c>
+      <c r="D9" s="38" t="inlineStr">
+        <is>
+          <t>Basic DLP</t>
+        </is>
+      </c>
+      <c r="E9" s="38" t="inlineStr">
+        <is>
+          <t>Standard DLP</t>
+        </is>
+      </c>
+      <c r="F9" s="38" t="inlineStr">
+        <is>
+          <t>Advanced DLP + custom</t>
+        </is>
+      </c>
+      <c r="G9" s="38" t="inlineStr">
+        <is>
+          <t>Data loss prevention complexity</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="26" customHeight="1">
+      <c r="A10" s="40" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="B10" s="41" t="inlineStr">
+        <is>
+          <t>Mobile Management</t>
+        </is>
+      </c>
+      <c r="C10" s="39" t="inlineStr">
+        <is>
+          <t>Advanced mobile device management</t>
+        </is>
+      </c>
+      <c r="D10" s="41" t="inlineStr">
+        <is>
+          <t>Basic MDM</t>
+        </is>
+      </c>
+      <c r="E10" s="41" t="inlineStr">
+        <is>
+          <t>Advanced MDM</t>
+        </is>
+      </c>
+      <c r="F10" s="41" t="inlineStr">
+        <is>
+          <t>Enterprise EMM</t>
+        </is>
+      </c>
+      <c r="G10" s="41" t="inlineStr">
+        <is>
+          <t>Mobile security requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="26" customHeight="1">
+      <c r="A11" s="37" t="inlineStr">
+        <is>
+          <t>Compliance</t>
+        </is>
+      </c>
+      <c r="B11" s="38" t="inlineStr">
+        <is>
+          <t>Retention Policy</t>
+        </is>
+      </c>
+      <c r="C11" s="39" t="inlineStr">
+        <is>
+          <t>7-year retention (Vault)</t>
+        </is>
+      </c>
+      <c r="D11" s="38" t="inlineStr">
+        <is>
+          <t>3-year retention</t>
+        </is>
+      </c>
+      <c r="E11" s="38" t="inlineStr">
+        <is>
+          <t>7-year retention</t>
+        </is>
+      </c>
+      <c r="F11" s="38" t="inlineStr">
+        <is>
+          <t>Unlimited + legal hold</t>
+        </is>
+      </c>
+      <c r="G11" s="38" t="inlineStr">
+        <is>
+          <t>Data retention requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="26" customHeight="1">
+      <c r="A12" s="40" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B12" s="41" t="inlineStr">
+        <is>
+          <t>Deployment Approach</t>
+        </is>
+      </c>
+      <c r="C12" s="39" t="inlineStr">
+        <is>
+          <t>Phased by department (5 waves)</t>
+        </is>
+      </c>
+      <c r="D12" s="41" t="inlineStr">
+        <is>
+          <t>Big bang</t>
+        </is>
+      </c>
+      <c r="E12" s="41" t="inlineStr">
+        <is>
+          <t>Phased rollout</t>
+        </is>
+      </c>
+      <c r="F12" s="41" t="inlineStr">
+        <is>
+          <t>Complex multi-phase</t>
+        </is>
+      </c>
+      <c r="G12" s="41" t="inlineStr">
+        <is>
+          <t>Migration strategy complexity</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="26" customHeight="1">
+      <c r="A13" s="37" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>Training Approach</t>
+        </is>
+      </c>
+      <c r="C13" s="39" t="inlineStr">
+        <is>
+          <t>Virtual + self-service</t>
+        </is>
+      </c>
+      <c r="D13" s="38" t="inlineStr">
+        <is>
+          <t>Self-service only</t>
+        </is>
+      </c>
+      <c r="E13" s="38" t="inlineStr">
+        <is>
+          <t>Virtual training</t>
+        </is>
+      </c>
+      <c r="F13" s="38" t="inlineStr">
+        <is>
+          <t>In-person + virtual</t>
+        </is>
+      </c>
+      <c r="G13" s="38" t="inlineStr">
+        <is>
+          <t>User enablement scope</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1">
+      <c r="A14" s="40" t="inlineStr">
+        <is>
+          <t>Technical Environment</t>
+        </is>
+      </c>
+      <c r="B14" s="41" t="inlineStr">
+        <is>
+          <t>Coexistence Period</t>
+        </is>
+      </c>
+      <c r="C14" s="39" t="inlineStr">
+        <is>
+          <t>4 weeks with Exchange</t>
+        </is>
+      </c>
+      <c r="D14" s="41" t="inlineStr">
+        <is>
+          <t>2 weeks</t>
+        </is>
+      </c>
+      <c r="E14" s="41" t="inlineStr">
+        <is>
+          <t>4 weeks</t>
+        </is>
+      </c>
+      <c r="F14" s="41" t="inlineStr">
+        <is>
+          <t>8+ weeks</t>
+        </is>
+      </c>
+      <c r="G14" s="41" t="inlineStr">
+        <is>
+          <t>Parallel operation complexity</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="26" customHeight="1">
+      <c r="A15" s="37" t="inlineStr">
+        <is>
+          <t>Technical Environment</t>
+        </is>
+      </c>
+      <c r="B15" s="38" t="inlineStr">
+        <is>
+          <t>Directory Sync</t>
+        </is>
+      </c>
+      <c r="C15" s="39" t="inlineStr">
+        <is>
+          <t>GCDS for automated provisioning</t>
+        </is>
+      </c>
+      <c r="D15" s="38" t="inlineStr">
+        <is>
+          <t>Manual sync</t>
+        </is>
+      </c>
+      <c r="E15" s="38" t="inlineStr">
+        <is>
+          <t>Automated GCDS</t>
+        </is>
+      </c>
+      <c r="F15" s="38" t="inlineStr">
+        <is>
+          <t>Complex multi-directory</t>
+        </is>
+      </c>
+      <c r="G15" s="38" t="inlineStr">
+        <is>
+          <t>User provisioning automation</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A2:G15"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -697,174 +1475,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="80" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="173" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="8" t="inlineStr">
-        <is>
-          <t>INSTRUCTIONS: How to Use Estimate Settings</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="inlineStr">
-        <is>
-          <t>This sheet contains phase-based multiplier variables that control effort scaling for each project phase.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="inlineStr">
-        <is>
-          <t>The EO Sales Engineer updates these multipliers based on customer scope compared to baseline assumptions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="inlineStr">
-        <is>
-          <t>How It Works:</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>1. Review customer requirements from Discovery Questionnaire</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="inlineStr">
-        <is>
-          <t>2. Compare customer scope to Baseline Assumptions (see 'Scope Assumptions' sheet)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="inlineStr">
-        <is>
-          <t>3. Update YELLOW HIGHLIGHTED multiplier values below (Column C) for each phase</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="inlineStr">
-        <is>
-          <t>4. All tasks in that phase on the 'LOE' sheet automatically update their Actual Hours</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="inlineStr">
-        <is>
-          <t>5. Total cost recalculates automatically</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>Multiplier Guidelines:</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="inlineStr">
-        <is>
-          <t>• 1.0 = Matches baseline exactly (Small scope)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="inlineStr">
-        <is>
-          <t>• 1.5-2.0 = Medium scope (moderately above baseline)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="9" t="inlineStr">
-        <is>
-          <t>• 2.0-3.0 = Large scope (significantly above baseline)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9" t="inlineStr">
-        <is>
-          <t>• 3.0+ = Very large/complex (substantially above baseline, document rationale)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="inlineStr">
-        <is>
-          <t>Example: Customer needs comprehensive testing due to compliance → Set TESTING_MX to 2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="9" t="inlineStr">
-        <is>
-          <t>Example: Complex architecture requiring more technical oversight → Set LEADERSHIP_MX to 1.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="9" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>ESTIMATE SETTINGS - Update phase multipliers in Column C below:</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="32" customHeight="1"/>
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>ESTIMATE SETTINGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="B2" s="36" t="inlineStr">
+        <is>
+          <t>Variable Name</t>
+        </is>
+      </c>
+      <c r="C2" s="36" t="inlineStr">
+        <is>
+          <t>Multiplier</t>
+        </is>
+      </c>
+      <c r="D2" s="36" t="inlineStr">
+        <is>
+          <t>Description / Applies To Tasks</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="37" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B3" s="38" t="inlineStr">
+        <is>
+          <t>DISCOVERY_MX</t>
+        </is>
+      </c>
+      <c r="C3" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38" t="inlineStr">
+        <is>
+          <t>All Discovery phase tasks (Migration Assessment, Environment Analysis, Training Needs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="40" t="inlineStr">
+        <is>
+          <t>Planning</t>
+        </is>
+      </c>
+      <c r="B4" s="41" t="inlineStr">
+        <is>
+          <t>PLANNING_MX</t>
+        </is>
+      </c>
+      <c r="C4" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41" t="inlineStr">
+        <is>
+          <t>All Planning phase tasks (Migration Planning, Stakeholder Alignment)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="37" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>DEVELOPMENT_MX</t>
+        </is>
+      </c>
+      <c r="C5" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="inlineStr">
+        <is>
+          <t>All Development phase tasks (Workspace Configuration, SSO Setup, DLP Policies, Vault Setup, Mobile Management)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="40" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B6" s="41" t="inlineStr">
+        <is>
+          <t>TESTING_MX</t>
+        </is>
+      </c>
+      <c r="C6" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="41" t="inlineStr">
+        <is>
+          <t>All Testing phase tasks (Pilot Validation, Migration Testing, UAT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="26" customHeight="1">
+      <c r="A7" s="37" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B7" s="38" t="inlineStr">
+        <is>
+          <t>DEPLOYMENT_MX</t>
+        </is>
+      </c>
+      <c r="C7" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="38" t="inlineStr">
+        <is>
+          <t>All Deployment phase tasks (Pilot Migration, Email/File Migration, Group Migration, Go-Live Support)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1">
+      <c r="A8" s="40" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B8" s="41" t="inlineStr">
+        <is>
+          <t>TRAINING_MX</t>
+        </is>
+      </c>
+      <c r="C8" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="41" t="inlineStr">
+        <is>
+          <t>All Training phase tasks (Admin Training, End-User Training, Documentation)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="26" customHeight="1">
+      <c r="A9" s="37" t="inlineStr">
+        <is>
+          <t>Closeout</t>
+        </is>
+      </c>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>CLOSEOUT_MX</t>
+        </is>
+      </c>
+      <c r="C9" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="38" t="inlineStr">
+        <is>
+          <t>All Closeout phase tasks (Knowledge Transfer, Hypercare Support)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="26" customHeight="1">
+      <c r="A10" s="40" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B10" s="41" t="inlineStr">
+        <is>
+          <t>MANAGEMENT_MX</t>
+        </is>
+      </c>
+      <c r="C10" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="41" t="inlineStr">
+        <is>
+          <t>Project Management overhead - 20% of actual engineering hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="26" customHeight="1">
+      <c r="A11" s="37" t="inlineStr">
+        <is>
+          <t>Leadership</t>
+        </is>
+      </c>
+      <c r="B11" s="38" t="inlineStr">
+        <is>
+          <t>LEADERSHIP_MX</t>
+        </is>
+      </c>
+      <c r="C11" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="38" t="inlineStr">
+        <is>
+          <t>Quarterback/Technical Leadership overhead - 25% of actual engineering hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="44" t="inlineStr">
+        <is>
+          <t>EO Sales Engineer Updates Multipliers Based on Customer Scope</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <autoFilter ref="A2:D11"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -876,30 +1722,1399 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="58" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="60" customWidth="1" min="11" max="11"/>
+    <col width="40" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1"/>
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>Level of Effort</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>Phase</t>
+        </is>
+      </c>
+      <c r="B2" s="36" t="inlineStr">
+        <is>
+          <t>Work Package</t>
+        </is>
+      </c>
+      <c r="C2" s="36" t="inlineStr">
+        <is>
+          <t>Task Description</t>
+        </is>
+      </c>
+      <c r="D2" s="36" t="inlineStr">
+        <is>
+          <t>Resource Type</t>
+        </is>
+      </c>
+      <c r="E2" s="36" t="inlineStr">
+        <is>
+          <t>Base Hours</t>
+        </is>
+      </c>
+      <c r="F2" s="36" t="inlineStr">
+        <is>
+          <t>Effort Multiplier</t>
+        </is>
+      </c>
+      <c r="G2" s="36" t="inlineStr">
+        <is>
+          <t>Actual Hours</t>
+        </is>
+      </c>
+      <c r="H2" s="36" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="I2" s="36" t="inlineStr">
+        <is>
+          <t>Cost Estimate</t>
+        </is>
+      </c>
+      <c r="J2" s="36" t="inlineStr">
+        <is>
+          <t>Dependencies</t>
+        </is>
+      </c>
+      <c r="K2" s="36" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="45" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B3" s="46" t="inlineStr">
+        <is>
+          <t>Migration Assessment</t>
+        </is>
+      </c>
+      <c r="C3" s="46" t="inlineStr">
+        <is>
+          <t>Exchange and file server inventory and migration planning</t>
+        </is>
+      </c>
+      <c r="D3" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E3" s="47" t="n">
+        <v>24</v>
+      </c>
+      <c r="F3" s="48">
+        <f>'Estimate Settings'!$C$3</f>
+        <v/>
+      </c>
+      <c r="G3" s="49">
+        <f>$E3*$F3</f>
+        <v/>
+      </c>
+      <c r="H3" s="50" t="n">
+        <v>200</v>
+      </c>
+      <c r="I3" s="49">
+        <f>TEXT($G3*$H3,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J3" s="46" t="inlineStr"/>
+      <c r="K3" s="46" t="inlineStr">
+        <is>
+          <t>Customer must provide Exchange admin access and mailbox inventory</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="51" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B4" s="52" t="inlineStr">
+        <is>
+          <t>Environment Analysis</t>
+        </is>
+      </c>
+      <c r="C4" s="52" t="inlineStr">
+        <is>
+          <t>Analyze distribution lists groups and calendar complexity</t>
+        </is>
+      </c>
+      <c r="D4" s="52" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E4" s="53" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" s="54">
+        <f>'Estimate Settings'!$C$3</f>
+        <v/>
+      </c>
+      <c r="G4" s="55">
+        <f>$E4*$F4</f>
+        <v/>
+      </c>
+      <c r="H4" s="56" t="n">
+        <v>200</v>
+      </c>
+      <c r="I4" s="55">
+        <f>TEXT($G4*$H4,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J4" s="52" t="inlineStr"/>
+      <c r="K4" s="52" t="inlineStr">
+        <is>
+          <t>Identify migration dependencies and integration requirements</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="45" t="inlineStr">
+        <is>
+          <t>Discovery</t>
+        </is>
+      </c>
+      <c r="B5" s="46" t="inlineStr">
+        <is>
+          <t>Training Needs Assessment</t>
+        </is>
+      </c>
+      <c r="C5" s="46" t="inlineStr">
+        <is>
+          <t>User training requirements and change management planning</t>
+        </is>
+      </c>
+      <c r="D5" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E5" s="47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" s="48">
+        <f>'Estimate Settings'!$C$3</f>
+        <v/>
+      </c>
+      <c r="G5" s="49">
+        <f>$E5*$F5</f>
+        <v/>
+      </c>
+      <c r="H5" s="50" t="n">
+        <v>150</v>
+      </c>
+      <c r="I5" s="49">
+        <f>TEXT($G5*$H5,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J5" s="46" t="inlineStr"/>
+      <c r="K5" s="46" t="inlineStr">
+        <is>
+          <t>Define training approach and communication strategy</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="51" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B6" s="52" t="inlineStr">
+        <is>
+          <t>Workspace Configuration</t>
+        </is>
+      </c>
+      <c r="C6" s="52" t="inlineStr">
+        <is>
+          <t>Google Workspace tenant setup domain verification and OU structure</t>
+        </is>
+      </c>
+      <c r="D6" s="52" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E6" s="53" t="n">
+        <v>16</v>
+      </c>
+      <c r="F6" s="54">
+        <f>'Estimate Settings'!$C$5</f>
+        <v/>
+      </c>
+      <c r="G6" s="55">
+        <f>$E6*$F6</f>
+        <v/>
+      </c>
+      <c r="H6" s="56" t="n">
+        <v>175</v>
+      </c>
+      <c r="I6" s="55">
+        <f>TEXT($G6*$H6,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J6" s="52" t="inlineStr">
+        <is>
+          <t>Migration Assessment</t>
+        </is>
+      </c>
+      <c r="K6" s="52" t="inlineStr">
+        <is>
+          <t>Deliverable: Configured Workspace tenant with organizational units</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="26" customHeight="1">
+      <c r="A7" s="45" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B7" s="46" t="inlineStr">
+        <is>
+          <t>SSO Integration</t>
+        </is>
+      </c>
+      <c r="C7" s="46" t="inlineStr">
+        <is>
+          <t>SAML SSO setup with Azure AD and directory sync (GCDS) deployment</t>
+        </is>
+      </c>
+      <c r="D7" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E7" s="47" t="n">
+        <v>24</v>
+      </c>
+      <c r="F7" s="48">
+        <f>'Estimate Settings'!$C$5</f>
+        <v/>
+      </c>
+      <c r="G7" s="49">
+        <f>$E7*$F7</f>
+        <v/>
+      </c>
+      <c r="H7" s="50" t="n">
+        <v>200</v>
+      </c>
+      <c r="I7" s="49">
+        <f>TEXT($G7*$H7,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J7" s="46" t="inlineStr">
+        <is>
+          <t>Workspace Configuration</t>
+        </is>
+      </c>
+      <c r="K7" s="46" t="inlineStr">
+        <is>
+          <t>Includes SAML metadata exchange and GCDS configuration testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="26" customHeight="1">
+      <c r="A8" s="51" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B8" s="52" t="inlineStr">
+        <is>
+          <t>DLP Configuration</t>
+        </is>
+      </c>
+      <c r="C8" s="52" t="inlineStr">
+        <is>
+          <t>Data Loss Prevention policy setup for sensitive content</t>
+        </is>
+      </c>
+      <c r="D8" s="52" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E8" s="53" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" s="54">
+        <f>'Estimate Settings'!$C$5</f>
+        <v/>
+      </c>
+      <c r="G8" s="55">
+        <f>$E8*$F8</f>
+        <v/>
+      </c>
+      <c r="H8" s="56" t="n">
+        <v>175</v>
+      </c>
+      <c r="I8" s="55">
+        <f>TEXT($G8*$H8,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J8" s="52" t="inlineStr">
+        <is>
+          <t>Workspace Configuration</t>
+        </is>
+      </c>
+      <c r="K8" s="52" t="inlineStr">
+        <is>
+          <t>Configure DLP rules for PII PHI payment data</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="26" customHeight="1">
+      <c r="A9" s="45" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B9" s="46" t="inlineStr">
+        <is>
+          <t>Vault Setup</t>
+        </is>
+      </c>
+      <c r="C9" s="46" t="inlineStr">
+        <is>
+          <t>Google Vault configuration for 7-year retention and eDiscovery</t>
+        </is>
+      </c>
+      <c r="D9" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E9" s="47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" s="48">
+        <f>'Estimate Settings'!$C$5</f>
+        <v/>
+      </c>
+      <c r="G9" s="49">
+        <f>$E9*$F9</f>
+        <v/>
+      </c>
+      <c r="H9" s="50" t="n">
+        <v>150</v>
+      </c>
+      <c r="I9" s="49">
+        <f>TEXT($G9*$H9,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J9" s="46" t="inlineStr">
+        <is>
+          <t>Workspace Configuration</t>
+        </is>
+      </c>
+      <c r="K9" s="46" t="inlineStr">
+        <is>
+          <t>Setup retention policies and legal hold capabilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="26" customHeight="1">
+      <c r="A10" s="51" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="B10" s="52" t="inlineStr">
+        <is>
+          <t>Mobile Management</t>
+        </is>
+      </c>
+      <c r="C10" s="52" t="inlineStr">
+        <is>
+          <t>Advanced mobile device management policy configuration</t>
+        </is>
+      </c>
+      <c r="D10" s="52" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E10" s="53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" s="54">
+        <f>'Estimate Settings'!$C$5</f>
+        <v/>
+      </c>
+      <c r="G10" s="55">
+        <f>$E10*$F10</f>
+        <v/>
+      </c>
+      <c r="H10" s="56" t="n">
+        <v>150</v>
+      </c>
+      <c r="I10" s="55">
+        <f>TEXT($G10*$H10,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J10" s="52" t="inlineStr">
+        <is>
+          <t>Workspace Configuration</t>
+        </is>
+      </c>
+      <c r="K10" s="52" t="inlineStr">
+        <is>
+          <t>Configure device policies passcode requirements remote wipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="26" customHeight="1">
+      <c r="A11" s="45" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B11" s="46" t="inlineStr">
+        <is>
+          <t>Pilot Migration</t>
+        </is>
+      </c>
+      <c r="C11" s="46" t="inlineStr">
+        <is>
+          <t>Pilot migration of 25 IT and early adopter users</t>
+        </is>
+      </c>
+      <c r="D11" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E11" s="47" t="n">
+        <v>24</v>
+      </c>
+      <c r="F11" s="48">
+        <f>'Estimate Settings'!$C$7</f>
+        <v/>
+      </c>
+      <c r="G11" s="49">
+        <f>$E11*$F11</f>
+        <v/>
+      </c>
+      <c r="H11" s="50" t="n">
+        <v>140</v>
+      </c>
+      <c r="I11" s="49">
+        <f>TEXT($G11*$H11,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J11" s="46" t="inlineStr">
+        <is>
+          <t>Vault Setup</t>
+        </is>
+      </c>
+      <c r="K11" s="46" t="inlineStr">
+        <is>
+          <t>Validate migration tools workflows and training materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="26" customHeight="1">
+      <c r="A12" s="51" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B12" s="52" t="inlineStr">
+        <is>
+          <t>Email Migration Wave 1-5</t>
+        </is>
+      </c>
+      <c r="C12" s="52" t="inlineStr">
+        <is>
+          <t>Mailbox migration for 475 users in 5 waves (95 users/week)</t>
+        </is>
+      </c>
+      <c r="D12" s="52" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E12" s="53" t="n">
+        <v>80</v>
+      </c>
+      <c r="F12" s="54">
+        <f>'Estimate Settings'!$C$7</f>
+        <v/>
+      </c>
+      <c r="G12" s="55">
+        <f>$E12*$F12</f>
+        <v/>
+      </c>
+      <c r="H12" s="56" t="n">
+        <v>140</v>
+      </c>
+      <c r="I12" s="55">
+        <f>TEXT($G12*$H12,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J12" s="52" t="inlineStr">
+        <is>
+          <t>Pilot Migration</t>
+        </is>
+      </c>
+      <c r="K12" s="52" t="inlineStr">
+        <is>
+          <t>Exchange to Gmail migration with folder structure preservation</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="26" customHeight="1">
+      <c r="A13" s="45" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B13" s="46" t="inlineStr">
+        <is>
+          <t>File Migration</t>
+        </is>
+      </c>
+      <c r="C13" s="46" t="inlineStr">
+        <is>
+          <t>File server to Google Drive migration (3 TB with permissions)</t>
+        </is>
+      </c>
+      <c r="D13" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E13" s="47" t="n">
+        <v>48</v>
+      </c>
+      <c r="F13" s="48">
+        <f>'Estimate Settings'!$C$7</f>
+        <v/>
+      </c>
+      <c r="G13" s="49">
+        <f>$E13*$F13</f>
+        <v/>
+      </c>
+      <c r="H13" s="50" t="n">
+        <v>130</v>
+      </c>
+      <c r="I13" s="49">
+        <f>TEXT($G13*$H13,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J13" s="46" t="inlineStr">
+        <is>
+          <t>Email Migration Wave 1-5</t>
+        </is>
+      </c>
+      <c r="K13" s="46" t="inlineStr">
+        <is>
+          <t>Migrate files with ACL to Drive sharing permission mapping</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1">
+      <c r="A14" s="51" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B14" s="52" t="inlineStr">
+        <is>
+          <t>Calendar and Contacts</t>
+        </is>
+      </c>
+      <c r="C14" s="52" t="inlineStr">
+        <is>
+          <t>Calendar and contacts migration for all 500 users</t>
+        </is>
+      </c>
+      <c r="D14" s="52" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E14" s="53" t="n">
+        <v>16</v>
+      </c>
+      <c r="F14" s="54">
+        <f>'Estimate Settings'!$C$7</f>
+        <v/>
+      </c>
+      <c r="G14" s="55">
+        <f>$E14*$F14</f>
+        <v/>
+      </c>
+      <c r="H14" s="56" t="n">
+        <v>120</v>
+      </c>
+      <c r="I14" s="55">
+        <f>TEXT($G14*$H14,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J14" s="52" t="inlineStr">
+        <is>
+          <t>Email Migration Wave 1-5</t>
+        </is>
+      </c>
+      <c r="K14" s="52" t="inlineStr">
+        <is>
+          <t>Preserve recurring appointments and contact deduplication</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="26" customHeight="1">
+      <c r="A15" s="45" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="B15" s="46" t="inlineStr">
+        <is>
+          <t>Distribution Lists</t>
+        </is>
+      </c>
+      <c r="C15" s="46" t="inlineStr">
+        <is>
+          <t>Migration of 150 distribution lists to Google Groups</t>
+        </is>
+      </c>
+      <c r="D15" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E15" s="47" t="n">
+        <v>16</v>
+      </c>
+      <c r="F15" s="48">
+        <f>'Estimate Settings'!$C$7</f>
+        <v/>
+      </c>
+      <c r="G15" s="49">
+        <f>$E15*$F15</f>
+        <v/>
+      </c>
+      <c r="H15" s="50" t="n">
+        <v>120</v>
+      </c>
+      <c r="I15" s="49">
+        <f>TEXT($G15*$H15,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J15" s="46" t="inlineStr">
+        <is>
+          <t>Email Migration Wave 1-5</t>
+        </is>
+      </c>
+      <c r="K15" s="46" t="inlineStr">
+        <is>
+          <t>Preserve group membership and email addresses</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="26" customHeight="1">
+      <c r="A16" s="51" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B16" s="52" t="inlineStr">
+        <is>
+          <t>Pilot Validation</t>
+        </is>
+      </c>
+      <c r="C16" s="52" t="inlineStr">
+        <is>
+          <t>Pilot user testing and workflow validation</t>
+        </is>
+      </c>
+      <c r="D16" s="52" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E16" s="53" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" s="54">
+        <f>'Estimate Settings'!$C$6</f>
+        <v/>
+      </c>
+      <c r="G16" s="55">
+        <f>$E16*$F16</f>
+        <v/>
+      </c>
+      <c r="H16" s="56" t="n">
+        <v>120</v>
+      </c>
+      <c r="I16" s="55">
+        <f>TEXT($G16*$H16,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J16" s="52" t="inlineStr">
+        <is>
+          <t>Pilot Migration</t>
+        </is>
+      </c>
+      <c r="K16" s="52" t="inlineStr">
+        <is>
+          <t>Validate Gmail Drive Docs Meet functionality with pilot users</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="26" customHeight="1">
+      <c r="A17" s="45" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B17" s="46" t="inlineStr">
+        <is>
+          <t>Migration Testing</t>
+        </is>
+      </c>
+      <c r="C17" s="46" t="inlineStr">
+        <is>
+          <t>Data integrity validation and migration quality checks</t>
+        </is>
+      </c>
+      <c r="D17" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E17" s="47" t="n">
+        <v>24</v>
+      </c>
+      <c r="F17" s="48">
+        <f>'Estimate Settings'!$C$6</f>
+        <v/>
+      </c>
+      <c r="G17" s="49">
+        <f>$E17*$F17</f>
+        <v/>
+      </c>
+      <c r="H17" s="50" t="n">
+        <v>130</v>
+      </c>
+      <c r="I17" s="49">
+        <f>TEXT($G17*$H17,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J17" s="46" t="inlineStr">
+        <is>
+          <t>File Migration</t>
+        </is>
+      </c>
+      <c r="K17" s="46" t="inlineStr">
+        <is>
+          <t>Ensure 100% data migration with zero data loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="26" customHeight="1">
+      <c r="A18" s="51" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="B18" s="52" t="inlineStr">
+        <is>
+          <t>UAT Coordination</t>
+        </is>
+      </c>
+      <c r="C18" s="52" t="inlineStr">
+        <is>
+          <t>User acceptance testing coordination with business stakeholders</t>
+        </is>
+      </c>
+      <c r="D18" s="52" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E18" s="53" t="n">
+        <v>16</v>
+      </c>
+      <c r="F18" s="54">
+        <f>'Estimate Settings'!$C$6</f>
+        <v/>
+      </c>
+      <c r="G18" s="55">
+        <f>$E18*$F18</f>
+        <v/>
+      </c>
+      <c r="H18" s="56" t="n">
+        <v>140</v>
+      </c>
+      <c r="I18" s="55">
+        <f>TEXT($G18*$H18,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J18" s="52" t="inlineStr">
+        <is>
+          <t>Migration Testing</t>
+        </is>
+      </c>
+      <c r="K18" s="52" t="inlineStr">
+        <is>
+          <t>Business validation of collaboration workflows</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="26" customHeight="1">
+      <c r="A19" s="45" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B19" s="46" t="inlineStr">
+        <is>
+          <t>Administrator Training</t>
+        </is>
+      </c>
+      <c r="C19" s="46" t="inlineStr">
+        <is>
+          <t>Google Admin Console GAM scripting and troubleshooting training</t>
+        </is>
+      </c>
+      <c r="D19" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E19" s="47" t="n">
+        <v>16</v>
+      </c>
+      <c r="F19" s="48">
+        <f>'Estimate Settings'!$C$8</f>
+        <v/>
+      </c>
+      <c r="G19" s="49">
+        <f>$E19*$F19</f>
+        <v/>
+      </c>
+      <c r="H19" s="50" t="n">
+        <v>150</v>
+      </c>
+      <c r="I19" s="49">
+        <f>TEXT($G19*$H19,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J19" s="46" t="inlineStr">
+        <is>
+          <t>UAT Coordination</t>
+        </is>
+      </c>
+      <c r="K19" s="46" t="inlineStr">
+        <is>
+          <t>Hands-on training for IT administrators</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="26" customHeight="1">
+      <c r="A20" s="51" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B20" s="52" t="inlineStr">
+        <is>
+          <t>End-User Training</t>
+        </is>
+      </c>
+      <c r="C20" s="52" t="inlineStr">
+        <is>
+          <t>Virtual training sessions for Gmail Drive Docs Meet (10 sessions)</t>
+        </is>
+      </c>
+      <c r="D20" s="52" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E20" s="53" t="n">
+        <v>40</v>
+      </c>
+      <c r="F20" s="54">
+        <f>'Estimate Settings'!$C$8</f>
+        <v/>
+      </c>
+      <c r="G20" s="55">
+        <f>$E20*$F20</f>
+        <v/>
+      </c>
+      <c r="H20" s="56" t="n">
+        <v>125</v>
+      </c>
+      <c r="I20" s="55">
+        <f>TEXT($G20*$H20,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J20" s="52" t="inlineStr">
+        <is>
+          <t>Administrator Training</t>
+        </is>
+      </c>
+      <c r="K20" s="52" t="inlineStr">
+        <is>
+          <t>2 sessions per migration wave covering core functionality</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="26" customHeight="1">
+      <c r="A21" s="45" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="B21" s="46" t="inlineStr">
+        <is>
+          <t>Training Materials</t>
+        </is>
+      </c>
+      <c r="C21" s="46" t="inlineStr">
+        <is>
+          <t>Custom quick start guides video tutorials and FAQ documentation</t>
+        </is>
+      </c>
+      <c r="D21" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E21" s="47" t="n">
+        <v>24</v>
+      </c>
+      <c r="F21" s="48">
+        <f>'Estimate Settings'!$C$8</f>
+        <v/>
+      </c>
+      <c r="G21" s="49">
+        <f>$E21*$F21</f>
+        <v/>
+      </c>
+      <c r="H21" s="50" t="n">
+        <v>110</v>
+      </c>
+      <c r="I21" s="49">
+        <f>TEXT($G21*$H21,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J21" s="46" t="inlineStr">
+        <is>
+          <t>End-User Training</t>
+        </is>
+      </c>
+      <c r="K21" s="46" t="inlineStr">
+        <is>
+          <t>Deliverable: Self-service training resources and help documentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="26" customHeight="1">
+      <c r="A22" s="51" t="inlineStr">
+        <is>
+          <t>Closeout</t>
+        </is>
+      </c>
+      <c r="B22" s="52" t="inlineStr">
+        <is>
+          <t>Knowledge Transfer</t>
+        </is>
+      </c>
+      <c r="C22" s="52" t="inlineStr">
+        <is>
+          <t>Operations handoff and support procedures documentation</t>
+        </is>
+      </c>
+      <c r="D22" s="52" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E22" s="53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" s="54">
+        <f>'Estimate Settings'!$C$9</f>
+        <v/>
+      </c>
+      <c r="G22" s="55">
+        <f>$E22*$F22</f>
+        <v/>
+      </c>
+      <c r="H22" s="56" t="n">
+        <v>140</v>
+      </c>
+      <c r="I22" s="55">
+        <f>TEXT($G22*$H22,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J22" s="52" t="inlineStr">
+        <is>
+          <t>Training Materials</t>
+        </is>
+      </c>
+      <c r="K22" s="52" t="inlineStr">
+        <is>
+          <t>Transfer operational ownership to IT team</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="26" customHeight="1">
+      <c r="A23" s="45" t="inlineStr">
+        <is>
+          <t>Closeout</t>
+        </is>
+      </c>
+      <c r="B23" s="46" t="inlineStr">
+        <is>
+          <t>Hypercare Support</t>
+        </is>
+      </c>
+      <c r="C23" s="46" t="inlineStr">
+        <is>
+          <t>Post-migration support and issue resolution (4 weeks)</t>
+        </is>
+      </c>
+      <c r="D23" s="46" t="inlineStr">
+        <is>
+          <t>EO Engineer</t>
+        </is>
+      </c>
+      <c r="E23" s="47" t="n">
+        <v>80</v>
+      </c>
+      <c r="F23" s="48">
+        <f>'Estimate Settings'!$C$9</f>
+        <v/>
+      </c>
+      <c r="G23" s="49">
+        <f>$E23*$F23</f>
+        <v/>
+      </c>
+      <c r="H23" s="50" t="n">
+        <v>110</v>
+      </c>
+      <c r="I23" s="49">
+        <f>TEXT($G23*$H23,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J23" s="46" t="inlineStr">
+        <is>
+          <t>Knowledge Transfer</t>
+        </is>
+      </c>
+      <c r="K23" s="46" t="inlineStr">
+        <is>
+          <t>Daily monitoring rapid issue resolution optimization support</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="26" customHeight="1">
+      <c r="A24" s="51" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B24" s="52" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="C24" s="52" t="inlineStr">
+        <is>
+          <t>Project coordination status reporting stakeholder management</t>
+        </is>
+      </c>
+      <c r="D24" s="52" t="inlineStr">
+        <is>
+          <t>EO Project Manager</t>
+        </is>
+      </c>
+      <c r="E24" s="55">
+        <f>ROUND(SUM(E19:E39)*0.20,0)</f>
+        <v/>
+      </c>
+      <c r="F24" s="54">
+        <f>'Estimate Settings'!$C$10</f>
+        <v/>
+      </c>
+      <c r="G24" s="55">
+        <f>$E24*$F24</f>
+        <v/>
+      </c>
+      <c r="H24" s="56" t="n">
+        <v>150</v>
+      </c>
+      <c r="I24" s="55">
+        <f>TEXT($G24*$H24,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J24" s="52" t="inlineStr"/>
+      <c r="K24" s="52" t="inlineStr">
+        <is>
+          <t>20% of engineering effort for project management</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="26" customHeight="1">
+      <c r="A25" s="45" t="inlineStr">
+        <is>
+          <t>Management</t>
+        </is>
+      </c>
+      <c r="B25" s="46" t="inlineStr">
+        <is>
+          <t>Technical Leadership</t>
+        </is>
+      </c>
+      <c r="C25" s="46" t="inlineStr">
+        <is>
+          <t>Quarterback oversight migration strategy technical governance</t>
+        </is>
+      </c>
+      <c r="D25" s="46" t="inlineStr">
+        <is>
+          <t>EO Quarterback</t>
+        </is>
+      </c>
+      <c r="E25" s="49">
+        <f>ROUND(SUM(E19:E39)*0.25,0)</f>
+        <v/>
+      </c>
+      <c r="F25" s="48">
+        <f>'Estimate Settings'!$C$11</f>
+        <v/>
+      </c>
+      <c r="G25" s="49">
+        <f>$E25*$F25</f>
+        <v/>
+      </c>
+      <c r="H25" s="50" t="n">
+        <v>180</v>
+      </c>
+      <c r="I25" s="49">
+        <f>TEXT($G25*$H25,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J25" s="46" t="inlineStr"/>
+      <c r="K25" s="46" t="inlineStr">
+        <is>
+          <t>25% of engineering effort for technical leadership</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="26" customHeight="1">
+      <c r="A26" s="51" t="inlineStr"/>
+      <c r="B26" s="52" t="inlineStr"/>
+      <c r="C26" s="52" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D26" s="52" t="inlineStr"/>
+      <c r="E26" s="55" t="inlineStr">
+        <is>
+          <t>$E19+$E20+$E21+$E22+$E23+$E24+$E25+$E26+$E27+$E28+$E29+$E30+$E31+$E32+$E33+$E34+$E35+$E36+$E37+$E38+$E39</t>
+        </is>
+      </c>
+      <c r="F26" s="54" t="inlineStr"/>
+      <c r="G26" s="55">
+        <f>$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26</f>
+        <v/>
+      </c>
+      <c r="H26" s="55" t="inlineStr"/>
+      <c r="I26" s="55">
+        <f>TEXT($G26*$H26,"$#,##0")</f>
+        <v/>
+      </c>
+      <c r="J26" s="52" t="inlineStr"/>
+      <c r="K26" s="52" t="inlineStr">
+        <is>
+          <t>Total Workspace migration implementation</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:K26"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" s="35" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="32" customHeight="1">
+      <c r="A2" s="36" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B2" s="36" t="inlineStr">
+        <is>
+          <t>Credit Type</t>
+        </is>
+      </c>
+      <c r="C2" s="36" t="inlineStr">
+        <is>
+          <t>Credit Amount</t>
+        </is>
+      </c>
+      <c r="D2" s="36" t="inlineStr">
+        <is>
+          <t>Credit Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="37" t="inlineStr">
+        <is>
+          <t>Professional Services</t>
+        </is>
+      </c>
+      <c r="B3" s="38" t="inlineStr">
+        <is>
+          <t>Partner Migration Credit</t>
+        </is>
+      </c>
+      <c r="C3" s="57" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="D3" s="38" t="inlineStr">
+        <is>
+          <t>Google Workspace partner migration services discount</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="40" t="inlineStr">
+        <is>
+          <t>Software Licenses</t>
+        </is>
+      </c>
+      <c r="B4" s="41" t="inlineStr">
+        <is>
+          <t>New Customer Promotion</t>
+        </is>
+      </c>
+      <c r="C4" s="58" t="n">
+        <v>-10000</v>
+      </c>
+      <c r="D4" s="41" t="inlineStr">
+        <is>
+          <t>First 3 months free for new Google Workspace customers (500 users)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="37" t="inlineStr">
+        <is>
+          <t>Cloud Infrastructure</t>
+        </is>
+      </c>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>Infrastructure Credit</t>
+        </is>
+      </c>
+      <c r="C5" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="38" t="inlineStr">
+        <is>
+          <t>No infrastructure credits available</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="40" t="inlineStr">
+        <is>
+          <t>Support &amp; Maintenance</t>
+        </is>
+      </c>
+      <c r="B6" s="41" t="inlineStr">
+        <is>
+          <t>Support Credit</t>
+        </is>
+      </c>
+      <c r="C6" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="41" t="inlineStr">
+        <is>
+          <t>No support credits available</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D6"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/solutions/google/modern-workspace/workspace/presales/level-of-effort-estimate.xlsx
+++ b/solutions/google/modern-workspace/workspace/presales/level-of-effort-estimate.xlsx
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="E24" s="55">
-        <f>ROUND(SUM(E19:E39)*0.20,0)</f>
+        <f>ROUND(SUM(E3:E23)*0.20,0)</f>
         <v/>
       </c>
       <c r="F24" s="54">
@@ -2915,7 +2915,7 @@
         </is>
       </c>
       <c r="E25" s="49">
-        <f>ROUND(SUM(E19:E39)*0.25,0)</f>
+        <f>ROUND(SUM(E3:E24)*0.25,0)</f>
         <v/>
       </c>
       <c r="F25" s="48">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="F26" s="54" t="inlineStr"/>
       <c r="G26" s="55">
-        <f>$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26+$G26</f>
+        <f>SUM(G3:G25)</f>
         <v/>
       </c>
       <c r="H26" s="55" t="inlineStr"/>
